--- a/src/attributions/attributions_ig_traj_183.xlsx
+++ b/src/attributions/attributions_ig_traj_183.xlsx
@@ -1004,46 +1004,46 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1300668605534773</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0003593537038976402</v>
+        <v>-0.1056763790825679</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2661582659571812</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.03251405969015528</v>
+        <v>0.01003772731320099</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1427406680299652</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.003645718059352546</v>
+        <v>-0.01979208801498059</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.242987368219968</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.01088055330345423</v>
+        <v>0.004423945506101552</v>
       </c>
       <c r="O2" t="n">
         <v>-0</v>
@@ -1055,22 +1055,22 @@
         <v>-0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.04637405600654273</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.004586625424935651</v>
+        <v>-0.1076971022137111</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>0.01605192199234246</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.03001896189171698</v>
+        <v>-0.04460431739448262</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1085,76 +1085,76 @@
         <v>-0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.03876393469455337</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.02972535126907273</v>
+        <v>-0.07772532331582976</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0</v>
+        <v>-0.00988950490464704</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.02474043546814574</v>
+        <v>0.009194210549037202</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03428343102052075</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.01450115845949535</v>
+        <v>-0.04384480141443917</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>0.03442446281322958</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.04132075038707379</v>
+        <v>0.07982703158461509</v>
       </c>
       <c r="AP2" t="n">
         <v>-0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS2" t="n">
         <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.05696480754597866</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.01025242849797192</v>
+        <v>-0.1648594835943316</v>
       </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0</v>
+        <v>0.09513739437549891</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.0962250422270738</v>
+        <v>0.01400073286441289</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0</v>
@@ -1163,22 +1163,22 @@
         <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.06048684855217773</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.0050874043485822</v>
+        <v>-0.02905379851713809</v>
       </c>
       <c r="BE2" t="n">
         <v>0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0</v>
+        <v>0.09983054286285226</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.01793586285036227</v>
+        <v>0.03683329100565719</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1187,25 +1187,25 @@
         <v>0</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK2" t="n">
         <v>-0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.02501041323368277</v>
+        <v>0</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003408266544735849</v>
+        <v>0.02957401969734591</v>
       </c>
       <c r="BN2" t="n">
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>0</v>
+        <v>-0.04199075926153524</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.02277658054628723</v>
+        <v>-0.09521321784165342</v>
       </c>
       <c r="BQ2" t="n">
         <v>0</v>
@@ -1220,52 +1220,52 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.04894447466951399</v>
+        <v>0</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.0127386777592413</v>
+        <v>-0.04027809927706854</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>0</v>
+        <v>0.02140014096010549</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.03368044539417937</v>
+        <v>-0.02033857839823998</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA2" t="n">
         <v>-0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.01461204741481478</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.0009461480567442709</v>
+        <v>0.03341464267615306</v>
       </c>
       <c r="CF2" t="n">
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0</v>
+        <v>-0.04024297188919205</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.02492313264947794</v>
+        <v>0.01772990530384111</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK2" t="n">
         <v>0</v>
@@ -1274,19 +1274,19 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.002705402516380774</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.01553246940671089</v>
+        <v>-0.01476736764181623</v>
       </c>
       <c r="CO2" t="n">
         <v>-0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0</v>
+        <v>0.03804480328825097</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.03139162635371005</v>
+        <v>0.04306717921016637</v>
       </c>
       <c r="CR2" t="n">
         <v>-0</v>
@@ -1295,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.01083352139481203</v>
+        <v>-0</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.006907954313983681</v>
+        <v>0.04779099857713974</v>
       </c>
       <c r="CX2" t="n">
         <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>-0</v>
+        <v>-0.04395842935551074</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.02491987038530756</v>
+        <v>0.009211424765332644</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,49 +1328,49 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01593551469197426</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.03713646309467698</v>
+        <v>0.03461260656283643</v>
       </c>
       <c r="DG2" t="n">
         <v>-0</v>
       </c>
       <c r="DH2" t="n">
-        <v>0</v>
+        <v>0.01670588914064872</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.02996297279363294</v>
+        <v>0.0364763747653508</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM2" t="n">
         <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.02019090213504387</v>
+        <v>0</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0236480424176564</v>
+        <v>-0.03330360949037436</v>
       </c>
       <c r="DP2" t="n">
         <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0</v>
+        <v>0.04664660442182604</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.02871148068604121</v>
+        <v>-0.02493578984991634</v>
       </c>
       <c r="DS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1382,22 +1382,22 @@
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0005999636704339846</v>
+        <v>0</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.007412332092607689</v>
+        <v>-0.06875348702283682</v>
       </c>
       <c r="DY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0</v>
+        <v>-0.01307614595831994</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.0111044972066973</v>
+        <v>-0.03573607780103341</v>
       </c>
       <c r="EB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC2" t="n">
         <v>-0</v>
@@ -1409,19 +1409,19 @@
         <v>-0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.04963209945195987</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.004179583747581753</v>
+        <v>0.04906983317781602</v>
       </c>
       <c r="EH2" t="n">
         <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0</v>
+        <v>0.08964384050486533</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.0009746699736793015</v>
+        <v>-0.03308765702123937</v>
       </c>
       <c r="EK2" t="n">
         <v>-0</v>
@@ -1436,52 +1436,52 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.01472419029867477</v>
+        <v>0</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.0478482061884746</v>
+        <v>0.04350483282345033</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER2" t="n">
-        <v>0</v>
+        <v>-0.03706498798249654</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.003466133612927349</v>
+        <v>0.02057055545050679</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW2" t="n">
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.01982758750508154</v>
+        <v>0</v>
       </c>
       <c r="EY2" t="n">
-        <v>-0.006098375563854081</v>
+        <v>0.04262581418030015</v>
       </c>
       <c r="EZ2" t="n">
         <v>0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0</v>
+        <v>-0.03410540786464537</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.03080179494076767</v>
+        <v>0.01800334742361566</v>
       </c>
       <c r="FC2" t="n">
         <v>0</v>
       </c>
       <c r="FD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE2" t="n">
         <v>0</v>
@@ -1490,79 +1490,79 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>-0.004922152390068987</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.02443752957440211</v>
+        <v>-0.004411514900748431</v>
       </c>
       <c r="FI2" t="n">
         <v>0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0</v>
+        <v>-0.01531828095525909</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.008186562798740759</v>
+        <v>0.008546415680021329</v>
       </c>
       <c r="FL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.05840771480990956</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
-        <v>-0.01067997486720179</v>
+        <v>-0.01248113415308976</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>-0.00559501352612642</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01436917264353781</v>
+        <v>0.004684377672604515</v>
       </c>
       <c r="FU2" t="n">
         <v>0</v>
       </c>
       <c r="FV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX2" t="n">
         <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.06713122661377323</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.02298386784569744</v>
+        <v>-0.04212936183134562</v>
       </c>
       <c r="GA2" t="n">
         <v>0</v>
       </c>
       <c r="GB2" t="n">
-        <v>-0</v>
+        <v>0.02691007616132334</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
         <v>-0</v>
